--- a/tests/testthat/validate/sample.xlsx
+++ b/tests/testthat/validate/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debruine/rproj/scienceverse/papercheck/tests/testthat/validate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C6351-6437-AA44-9B73-A2AD7CB10C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8CE07E-C4A1-8C4C-BD57-BEE362EB757B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{9E14DC60-6152-8340-A6DB-9544BB2FFF7E}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>report</t>
   </si>
@@ -34,13 +28,13 @@
     <t>traffic_light</t>
   </si>
   <si>
-    <t>to_err_is_human.pdf</t>
-  </si>
-  <si>
     <t>to_err_is_human.xml</t>
   </si>
   <si>
     <t>info</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -901,37 +895,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CC188-DE7C-9140-9BE2-7D8477114D32}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
